--- a/swing_strategy_vix_sim_20251230.xlsx
+++ b/swing_strategy_vix_sim_20251230.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>market_cap</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,7 +556,7 @@
         <v>887.73</v>
       </c>
       <c r="G2" t="n">
-        <v>85.56999999999999</v>
+        <v>85.69</v>
       </c>
       <c r="H2" t="n">
         <v>887.73</v>
@@ -586,6 +591,11 @@
       <c r="R2" t="n">
         <v>33541017600</v>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,7 +623,7 @@
         <v>46.51</v>
       </c>
       <c r="G3" t="n">
-        <v>84.16</v>
+        <v>84.3</v>
       </c>
       <c r="H3" t="n">
         <v>47.5</v>
@@ -648,6 +658,11 @@
       <c r="R3" t="n">
         <v>1564111104</v>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -675,7 +690,7 @@
         <v>117.77</v>
       </c>
       <c r="G4" t="n">
-        <v>78.79000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>117.77</v>
@@ -710,6 +725,11 @@
       <c r="R4" t="n">
         <v>6837253632</v>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -737,7 +757,7 @@
         <v>210.95</v>
       </c>
       <c r="G5" t="n">
-        <v>77.06999999999999</v>
+        <v>77.31</v>
       </c>
       <c r="H5" t="n">
         <v>210.95</v>
@@ -772,6 +792,11 @@
       <c r="R5" t="n">
         <v>17577535488</v>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -799,7 +824,7 @@
         <v>343.25</v>
       </c>
       <c r="G6" t="n">
-        <v>76.86</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>343.25</v>
@@ -834,6 +859,11 @@
       <c r="R6" t="n">
         <v>21642045440</v>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -861,7 +891,7 @@
         <v>16.6</v>
       </c>
       <c r="G7" t="n">
-        <v>89.65000000000001</v>
+        <v>89.73</v>
       </c>
       <c r="H7" t="n">
         <v>16.6</v>
@@ -896,6 +926,11 @@
       <c r="R7" t="n">
         <v>11758772224</v>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -923,7 +958,7 @@
         <v>274.14</v>
       </c>
       <c r="G8" t="n">
-        <v>89.44</v>
+        <v>89.52</v>
       </c>
       <c r="H8" t="n">
         <v>274.14</v>
@@ -958,6 +993,11 @@
       <c r="R8" t="n">
         <v>34881404928</v>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -985,7 +1025,7 @@
         <v>327.99</v>
       </c>
       <c r="G9" t="n">
-        <v>82.39</v>
+        <v>82.55</v>
       </c>
       <c r="H9" t="n">
         <v>327.99</v>
@@ -1020,6 +1060,11 @@
       <c r="R9" t="n">
         <v>10293705728</v>
       </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1047,7 +1092,7 @@
         <v>18.02</v>
       </c>
       <c r="G10" t="n">
-        <v>82.12</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>18.13</v>
@@ -1082,6 +1127,11 @@
       <c r="R10" t="n">
         <v>2638682880</v>
       </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1109,7 +1159,7 @@
         <v>131.12</v>
       </c>
       <c r="G11" t="n">
-        <v>81.73</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>131.12</v>
@@ -1144,6 +1194,11 @@
       <c r="R11" t="n">
         <v>167573192704</v>
       </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1171,7 +1226,7 @@
         <v>402.41</v>
       </c>
       <c r="G12" t="n">
-        <v>81.5</v>
+        <v>81.67</v>
       </c>
       <c r="H12" t="n">
         <v>402.41</v>
@@ -1206,6 +1261,11 @@
       <c r="R12" t="n">
         <v>93995130880</v>
       </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1233,7 +1293,7 @@
         <v>308.83</v>
       </c>
       <c r="G13" t="n">
-        <v>80.79000000000001</v>
+        <v>80.98</v>
       </c>
       <c r="H13" t="n">
         <v>308.83</v>
@@ -1268,6 +1328,11 @@
       <c r="R13" t="n">
         <v>16221220864</v>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1295,7 +1360,7 @@
         <v>20.96</v>
       </c>
       <c r="G14" t="n">
-        <v>80.34999999999999</v>
+        <v>80.55</v>
       </c>
       <c r="H14" t="n">
         <v>20.96</v>
@@ -1330,6 +1395,11 @@
       <c r="R14" t="n">
         <v>1906272896</v>
       </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1357,7 +1427,7 @@
         <v>69.39</v>
       </c>
       <c r="G15" t="n">
-        <v>78.48</v>
+        <v>78.7</v>
       </c>
       <c r="H15" t="n">
         <v>70.16</v>
@@ -1392,6 +1462,11 @@
       <c r="R15" t="n">
         <v>32321447936</v>
       </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1419,7 +1494,7 @@
         <v>223.9</v>
       </c>
       <c r="G16" t="n">
-        <v>77.86</v>
+        <v>78.09</v>
       </c>
       <c r="H16" t="n">
         <v>223.9</v>
@@ -1454,6 +1529,11 @@
       <c r="R16" t="n">
         <v>68278579200</v>
       </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1481,7 +1561,7 @@
         <v>136.4</v>
       </c>
       <c r="G17" t="n">
-        <v>75.78</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>140.82</v>
@@ -1516,6 +1596,11 @@
       <c r="R17" t="n">
         <v>25667688448</v>
       </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1543,7 +1628,7 @@
         <v>50.7</v>
       </c>
       <c r="G18" t="n">
-        <v>75.28</v>
+        <v>75.52</v>
       </c>
       <c r="H18" t="n">
         <v>50.7</v>
@@ -1578,6 +1663,11 @@
       <c r="R18" t="n">
         <v>4325302272</v>
       </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1587,58 +1677,63 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>RDDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19.41</v>
+        <v>234.65</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19.01 - 19.22</t>
+          <t>228.20 - 232.30</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.41</v>
+        <v>218.53</v>
       </c>
       <c r="F19" t="n">
-        <v>18.41</v>
+        <v>218.53</v>
       </c>
       <c r="G19" t="n">
-        <v>86.86</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>18.41</v>
+        <v>218.53</v>
       </c>
       <c r="I19" t="n">
-        <v>23.29</v>
+        <v>281.58</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.48</v>
+        <v>4.45</v>
       </c>
       <c r="L19" t="n">
-        <v>3.44</v>
+        <v>4.17</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.29</v>
+        <v>0.68</v>
       </c>
       <c r="N19" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="O19" t="n">
-        <v>396148639</v>
+        <v>137824835</v>
       </c>
       <c r="P19" t="n">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="R19" t="n">
-        <v>7689245184</v>
+        <v>44465180672</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1649,58 +1744,63 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATI</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>116.63</v>
+        <v>19.41</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>114.68 - 115.46</t>
+          <t>19.01 - 19.22</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>111.76</v>
+        <v>18.41</v>
       </c>
       <c r="F20" t="n">
-        <v>107.54</v>
+        <v>18.41</v>
       </c>
       <c r="G20" t="n">
-        <v>84.51000000000001</v>
+        <v>86.98</v>
       </c>
       <c r="H20" t="n">
-        <v>111.76</v>
+        <v>18.41</v>
       </c>
       <c r="I20" t="n">
-        <v>139.96</v>
+        <v>23.29</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.33</v>
+        <v>3.48</v>
       </c>
       <c r="L20" t="n">
-        <v>0.36</v>
+        <v>3.44</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.29</v>
       </c>
       <c r="N20" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="O20" t="n">
-        <v>135863661</v>
+        <v>396148639</v>
       </c>
       <c r="P20" t="n">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="R20" t="n">
-        <v>16075360256</v>
+        <v>7689245184</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1711,58 +1811,63 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>ATI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>130.34</v>
+        <v>116.63</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>128.45 - 129.04</t>
+          <t>114.68 - 115.46</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>125.62</v>
+        <v>111.76</v>
       </c>
       <c r="F21" t="n">
-        <v>121.65</v>
+        <v>107.54</v>
       </c>
       <c r="G21" t="n">
-        <v>83.8</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>125.62</v>
+        <v>111.76</v>
       </c>
       <c r="I21" t="n">
-        <v>156.41</v>
+        <v>139.96</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
       </c>
       <c r="K21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>135863661</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0.47</v>
       </c>
-      <c r="L21" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O21" t="n">
-        <v>204649752</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.72</v>
-      </c>
       <c r="R21" t="n">
-        <v>26981097472</v>
+        <v>16075360256</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
       </c>
     </row>
   </sheetData>
